--- a/src/test/resources/net/enanomapper/parser/test1/CalculatedDescriptorsWorkFlow.xlsx
+++ b/src/test/resources/net/enanomapper/parser/test1/CalculatedDescriptorsWorkFlow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>EndpointCategory</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Ni2O3</t>
   </si>
   <si>
@@ -91,6 +79,9 @@
   </si>
   <si>
     <t>PC_GRANULOMETRY</t>
+  </si>
+  <si>
+    <t>Substance owner</t>
   </si>
 </sst>
 </file>
@@ -1000,17 +991,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1027,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +1039,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,79 +1064,60 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/test/resources/net/enanomapper/parser/test1/CalculatedDescriptorsWorkFlow.xlsx
+++ b/src/test/resources/net/enanomapper/parser/test1/CalculatedDescriptorsWorkFlow.xlsx
@@ -54,12 +54,6 @@
     <t>Y2O3</t>
   </si>
   <si>
-    <t>QUCJKHQVGIPJOR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>SFEOMQIWYOMJNS-UHFFFAOYSA-I</t>
-  </si>
-  <si>
     <t>InChI</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Substance owner</t>
+  </si>
+  <si>
+    <t>1S/2Ni.3O/q2*+3;3*-2</t>
+  </si>
+  <si>
+    <t>1S/3O.2Y/q3*-2;2*+3</t>
   </si>
 </sst>
 </file>
@@ -994,13 +994,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,16 +1064,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,29 +1089,29 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
